--- a/tdu01_sample/tdu01_確認テスト/check_test01.xlsx
+++ b/tdu01_sample/tdu01_確認テスト/check_test01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinozakikouhei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinozakikouhei/Desktop/Git_tdu/tdu_sample/tdu01_sample/tdu01_確認テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC515BB-96E2-2946-A0C9-3D774B43B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84237A43-B48A-1047-B1BB-660AFF57170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{C3A64C7F-5CFA-2844-B543-416B0328F2A3}"/>
   </bookViews>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>gomi</t>
+  </si>
+  <si>
+    <t>modify  in develop</t>
   </si>
 </sst>
 </file>
@@ -389,9 +392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82242280-498C-3A49-AB8E-BEB45C0B2BFF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -400,6 +405,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
